--- a/crypto.xlsx
+++ b/crypto.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="302">
   <si>
     <t>#</t>
   </si>
@@ -255,14 +255,14 @@
 LINK</t>
   </si>
   <si>
+    <t>UNUS SED LEO
+LEO</t>
+  </si>
+  <si>
     <t>Dai
 DAI</t>
   </si>
   <si>
-    <t>UNUS SED LEO
-LEO</t>
-  </si>
-  <si>
     <t>Litecoin
 LTC</t>
   </si>
@@ -279,26 +279,26 @@
 KAS</t>
   </si>
   <si>
+    <t>Uniswap
+UNI</t>
+  </si>
+  <si>
+    <t>Pepe
+PEPE</t>
+  </si>
+  <si>
     <t>Internet Computer
 ICP</t>
   </si>
   <si>
-    <t>Uniswap
-UNI</t>
-  </si>
-  <si>
-    <t>Pepe
-PEPE</t>
+    <t>Stellar
+XLM</t>
   </si>
   <si>
     <t>Monero
 XMR</t>
   </si>
   <si>
-    <t>Stellar
-XLM</t>
-  </si>
-  <si>
     <t>Ethereum Classic
 ETC</t>
   </si>
@@ -307,22 +307,30 @@
 APT</t>
   </si>
   <si>
+    <t>Cronos
+CRO</t>
+  </si>
+  <si>
+    <t>Sui
+SUI</t>
+  </si>
+  <si>
+    <t>OKB
+OKB</t>
+  </si>
+  <si>
+    <t>bittensor
+TAO</t>
+  </si>
+  <si>
     <t>Artificial Superintelligence Alliance
 FET</t>
   </si>
   <si>
-    <t>Cronos
-CRO</t>
-  </si>
-  <si>
     <t>Stacks
 STX</t>
   </si>
   <si>
-    <t>OKB
-OKB</t>
-  </si>
-  <si>
     <t>Filecoin
 FIL</t>
   </si>
@@ -331,6 +339,10 @@
 MNT</t>
   </si>
   <si>
+    <t>Cosmos
+ATOM</t>
+  </si>
+  <si>
     <t>Hedera
 HBAR</t>
   </si>
@@ -339,628 +351,622 @@
 FDUSD</t>
   </si>
   <si>
-    <t>Cosmos
-ATOM</t>
+    <t>Arbitrum
+ARB</t>
+  </si>
+  <si>
+    <t>VeChain
+VET</t>
   </si>
   <si>
     <t>Render Token
 RNDR</t>
   </si>
   <si>
-    <t>bittensor
-TAO</t>
-  </si>
-  <si>
-    <t>VeChain
-VET</t>
+    <t>Maker
+MKR</t>
+  </si>
+  <si>
+    <t>Injective
+INJ</t>
   </si>
   <si>
     <t>Immutable X
 IMX</t>
   </si>
   <si>
-    <t>Maker
-MKR</t>
-  </si>
-  <si>
-    <t>Arbitrum
-ARB</t>
-  </si>
-  <si>
-    <t>Sui
-SUI</t>
-  </si>
-  <si>
-    <t>Injective
-INJ</t>
-  </si>
-  <si>
-    <t>Aave
-AAVE</t>
+    <t>dogwifhat
+$WIF</t>
   </si>
   <si>
     <t>Optimism
 OP</t>
   </si>
   <si>
-    <t>dogwifhat
-$WIF</t>
-  </si>
-  <si>
-    <t>$56,913.38</t>
-  </si>
-  <si>
-    <t>$2,502.13</t>
+    <t>WhiteBIT Token
+WBT</t>
+  </si>
+  <si>
+    <t>$59,042.58</t>
+  </si>
+  <si>
+    <t>$2,569.83</t>
   </si>
   <si>
     <t>$1.00</t>
   </si>
   <si>
-    <t>$490.75</t>
-  </si>
-  <si>
-    <t>$150.02</t>
-  </si>
-  <si>
-    <t>$0.5128</t>
+    <t>$507.31</t>
+  </si>
+  <si>
+    <t>$142.69</t>
+  </si>
+  <si>
+    <t>$0.5527</t>
+  </si>
+  <si>
+    <t>$6.21</t>
+  </si>
+  <si>
+    <t>$0.1014</t>
+  </si>
+  <si>
+    <t>$0.3301</t>
+  </si>
+  <si>
+    <t>$0.1279</t>
+  </si>
+  <si>
+    <t>$59,062.87</t>
+  </si>
+  <si>
+    <t>$20.57</t>
+  </si>
+  <si>
+    <t>$0.00001345</t>
+  </si>
+  <si>
+    <t>$4.51</t>
+  </si>
+  <si>
+    <t>$330.82</t>
+  </si>
+  <si>
+    <t>$10.06</t>
+  </si>
+  <si>
+    <t>$5.89</t>
+  </si>
+  <si>
+    <t>$0.9998</t>
+  </si>
+  <si>
+    <t>$59.51</t>
+  </si>
+  <si>
+    <t>$3.90</t>
+  </si>
+  <si>
+    <t>$0.4054</t>
+  </si>
+  <si>
+    <t>$0.1573</t>
+  </si>
+  <si>
+    <t>$5.93</t>
+  </si>
+  <si>
+    <t>$0.000007748</t>
+  </si>
+  <si>
+    <t>$6.86</t>
+  </si>
+  <si>
+    <t>$0.09786</t>
+  </si>
+  <si>
+    <t>$149.83</t>
+  </si>
+  <si>
+    <t>$18.53</t>
   </si>
   <si>
     <t>$5.81</t>
   </si>
   <si>
-    <t>$0.09842</t>
-  </si>
-  <si>
-    <t>$0.3361</t>
-  </si>
-  <si>
-    <t>$0.1246</t>
-  </si>
-  <si>
-    <t>$56,962.42</t>
-  </si>
-  <si>
-    <t>$21.07</t>
-  </si>
-  <si>
-    <t>$0.00001371</t>
-  </si>
-  <si>
-    <t>$4.54</t>
-  </si>
-  <si>
-    <t>$320.44</t>
-  </si>
-  <si>
-    <t>$10.24</t>
-  </si>
-  <si>
-    <t>$5.71</t>
-  </si>
-  <si>
-    <t>$58.87</t>
-  </si>
-  <si>
-    <t>$3.78</t>
-  </si>
-  <si>
-    <t>$0.4117</t>
-  </si>
-  <si>
-    <t>$0.1636</t>
-  </si>
-  <si>
-    <t>$7.65</t>
-  </si>
-  <si>
-    <t>$5.91</t>
-  </si>
-  <si>
-    <t>$0.000007889</t>
-  </si>
-  <si>
-    <t>$149.95</t>
-  </si>
-  <si>
-    <t>$0.09303</t>
-  </si>
-  <si>
-    <t>$18.36</t>
-  </si>
-  <si>
-    <t>$5.20</t>
-  </si>
-  <si>
-    <t>$0.8733</t>
-  </si>
-  <si>
-    <t>$0.08091</t>
-  </si>
-  <si>
-    <t>$1.40</t>
-  </si>
-  <si>
-    <t>$33.95</t>
-  </si>
-  <si>
-    <t>$3.51</t>
-  </si>
-  <si>
-    <t>$0.6098</t>
-  </si>
-  <si>
-    <t>$0.05572</t>
-  </si>
-  <si>
-    <t>$4.95</t>
-  </si>
-  <si>
-    <t>$4.81</t>
-  </si>
-  <si>
-    <t>$264.68</t>
-  </si>
-  <si>
-    <t>$0.02305</t>
-  </si>
-  <si>
-    <t>$1.17</t>
-  </si>
-  <si>
-    <t>$1,900.37</t>
-  </si>
-  <si>
-    <t>$0.5146</t>
-  </si>
-  <si>
-    <t>$16.32</t>
-  </si>
-  <si>
-    <t>$105.85</t>
-  </si>
-  <si>
-    <t>$1.30</t>
-  </si>
-  <si>
-    <t>$1.49</t>
-  </si>
-  <si>
-    <t>+1.32%</t>
-  </si>
-  <si>
-    <t>-0.78%</t>
-  </si>
-  <si>
-    <t>-0.32%</t>
-  </si>
-  <si>
-    <t>+1.16%</t>
-  </si>
-  <si>
-    <t>+7.04%</t>
-  </si>
-  <si>
-    <t>+0.00%</t>
-  </si>
-  <si>
-    <t>-0.17%</t>
-  </si>
-  <si>
-    <t>+5.72%</t>
-  </si>
-  <si>
-    <t>-0.99%</t>
-  </si>
-  <si>
-    <t>+2.19%</t>
-  </si>
-  <si>
-    <t>+1.68%</t>
-  </si>
-  <si>
-    <t>+1.33%</t>
-  </si>
-  <si>
-    <t>+2.18%</t>
-  </si>
-  <si>
-    <t>-0.88%</t>
-  </si>
-  <si>
-    <t>+4.07%</t>
-  </si>
-  <si>
-    <t>-0.80%</t>
-  </si>
-  <si>
-    <t>+2.26%</t>
-  </si>
-  <si>
-    <t>-0.35%</t>
-  </si>
-  <si>
-    <t>+0.24%</t>
-  </si>
-  <si>
-    <t>+0.92%</t>
-  </si>
-  <si>
-    <t>+1.52%</t>
-  </si>
-  <si>
-    <t>+1.39%</t>
-  </si>
-  <si>
-    <t>-1.70%</t>
-  </si>
-  <si>
-    <t>+2.52%</t>
-  </si>
-  <si>
-    <t>+3.42%</t>
-  </si>
-  <si>
-    <t>+1.89%</t>
-  </si>
-  <si>
-    <t>-0.59%</t>
-  </si>
-  <si>
-    <t>+2.54%</t>
-  </si>
-  <si>
-    <t>+0.74%</t>
-  </si>
-  <si>
-    <t>-0.38%</t>
-  </si>
-  <si>
-    <t>+2.76%</t>
-  </si>
-  <si>
-    <t>+4.00%</t>
-  </si>
-  <si>
-    <t>+4.79%</t>
-  </si>
-  <si>
-    <t>-2.18%</t>
-  </si>
-  <si>
-    <t>+3.19%</t>
-  </si>
-  <si>
-    <t>-0.57%</t>
-  </si>
-  <si>
-    <t>+1.40%</t>
-  </si>
-  <si>
-    <t>+0.13%</t>
-  </si>
-  <si>
-    <t>+2.07%</t>
-  </si>
-  <si>
-    <t>+9.08%</t>
-  </si>
-  <si>
-    <t>+5.15%</t>
-  </si>
-  <si>
-    <t>+2.96%</t>
-  </si>
-  <si>
-    <t>+5.25%</t>
-  </si>
-  <si>
-    <t>-4.55%</t>
-  </si>
-  <si>
-    <t>+0.87%</t>
-  </si>
-  <si>
-    <t>+4.91%</t>
-  </si>
-  <si>
-    <t>-1.30%</t>
-  </si>
-  <si>
-    <t>+3.71%</t>
-  </si>
-  <si>
-    <t>+8.14%</t>
-  </si>
-  <si>
-    <t>$48.16 B</t>
-  </si>
-  <si>
-    <t>$25.5 B</t>
-  </si>
-  <si>
-    <t>$78.65 B</t>
+    <t>$0.08894</t>
+  </si>
+  <si>
+    <t>$0.8896</t>
+  </si>
+  <si>
+    <t>$35.99</t>
+  </si>
+  <si>
+    <t>$287.04</t>
+  </si>
+  <si>
+    <t>$0.8255</t>
+  </si>
+  <si>
+    <t>$1.38</t>
+  </si>
+  <si>
+    <t>$3.49</t>
+  </si>
+  <si>
+    <t>$0.6056</t>
+  </si>
+  <si>
+    <t>$4.91</t>
+  </si>
+  <si>
+    <t>$0.05301</t>
+  </si>
+  <si>
+    <t>$0.9991</t>
+  </si>
+  <si>
+    <t>$0.556</t>
+  </si>
+  <si>
+    <t>$0.02261</t>
+  </si>
+  <si>
+    <t>$1,909.11</t>
+  </si>
+  <si>
+    <t>$17.84</t>
+  </si>
+  <si>
+    <t>$1.10</t>
+  </si>
+  <si>
+    <t>$1.65</t>
+  </si>
+  <si>
+    <t>$1.31</t>
+  </si>
+  <si>
+    <t>$10.29</t>
+  </si>
+  <si>
+    <t>-3.15%</t>
+  </si>
+  <si>
+    <t>-1.49%</t>
+  </si>
+  <si>
+    <t>-0.01%</t>
+  </si>
+  <si>
+    <t>-7.88%</t>
+  </si>
+  <si>
+    <t>-0.13%</t>
+  </si>
+  <si>
+    <t>-5.95%</t>
+  </si>
+  <si>
+    <t>-7.20%</t>
+  </si>
+  <si>
+    <t>-3.73%</t>
+  </si>
+  <si>
+    <t>-4.95%</t>
+  </si>
+  <si>
+    <t>-1.04%</t>
+  </si>
+  <si>
+    <t>-3.11%</t>
+  </si>
+  <si>
+    <t>-4.99%</t>
+  </si>
+  <si>
+    <t>-4.88%</t>
+  </si>
+  <si>
+    <t>-5.21%</t>
+  </si>
+  <si>
+    <t>-6.78%</t>
+  </si>
+  <si>
+    <t>-4.89%</t>
+  </si>
+  <si>
+    <t>+1.78%</t>
+  </si>
+  <si>
+    <t>-0.02%</t>
+  </si>
+  <si>
+    <t>-2.66%</t>
+  </si>
+  <si>
+    <t>-7.35%</t>
+  </si>
+  <si>
+    <t>-4.85%</t>
+  </si>
+  <si>
+    <t>-5.98%</t>
+  </si>
+  <si>
+    <t>-4.31%</t>
+  </si>
+  <si>
+    <t>-8.45%</t>
+  </si>
+  <si>
+    <t>-7.29%</t>
+  </si>
+  <si>
+    <t>-3.20%</t>
+  </si>
+  <si>
+    <t>+0.29%</t>
+  </si>
+  <si>
+    <t>-4.46%</t>
+  </si>
+  <si>
+    <t>-7.81%</t>
+  </si>
+  <si>
+    <t>-5.74%</t>
+  </si>
+  <si>
+    <t>-2.97%</t>
+  </si>
+  <si>
+    <t>-1.39%</t>
+  </si>
+  <si>
+    <t>-1.72%</t>
+  </si>
+  <si>
+    <t>-9.22%</t>
+  </si>
+  <si>
+    <t>-8.17%</t>
+  </si>
+  <si>
+    <t>-8.30%</t>
+  </si>
+  <si>
+    <t>-2.78%</t>
+  </si>
+  <si>
+    <t>-6.00%</t>
+  </si>
+  <si>
+    <t>-5.34%</t>
+  </si>
+  <si>
+    <t>-0.04%</t>
+  </si>
+  <si>
+    <t>-3.81%</t>
+  </si>
+  <si>
+    <t>-7.97%</t>
+  </si>
+  <si>
+    <t>-2.52%</t>
+  </si>
+  <si>
+    <t>-7.07%</t>
+  </si>
+  <si>
+    <t>-8.05%</t>
+  </si>
+  <si>
+    <t>-10.62%</t>
+  </si>
+  <si>
+    <t>-8.07%</t>
+  </si>
+  <si>
+    <t>+0.22%</t>
+  </si>
+  <si>
+    <t>$22.31 B</t>
+  </si>
+  <si>
+    <t>$13.39 B</t>
+  </si>
+  <si>
+    <t>$41.27 B</t>
+  </si>
+  <si>
+    <t>$1.56 B</t>
+  </si>
+  <si>
+    <t>$2.32 B</t>
+  </si>
+  <si>
+    <t>$4.15 B</t>
+  </si>
+  <si>
+    <t>$1.21 B</t>
+  </si>
+  <si>
+    <t>$295.23 M</t>
+  </si>
+  <si>
+    <t>$671.21 M</t>
+  </si>
+  <si>
+    <t>$201.46 M</t>
+  </si>
+  <si>
+    <t>$190.24 M</t>
+  </si>
+  <si>
+    <t>$310.44 M</t>
+  </si>
+  <si>
+    <t>$188.52 M</t>
+  </si>
+  <si>
+    <t>$225.36 M</t>
+  </si>
+  <si>
+    <t>$89.17 M</t>
+  </si>
+  <si>
+    <t>$176.93 M</t>
+  </si>
+  <si>
+    <t>$179.57 M</t>
+  </si>
+  <si>
+    <t>$1.63 M</t>
+  </si>
+  <si>
+    <t>$76.43 M</t>
+  </si>
+  <si>
+    <t>$230.24 M</t>
+  </si>
+  <si>
+    <t>$193.47 M</t>
+  </si>
+  <si>
+    <t>$145.81 M</t>
+  </si>
+  <si>
+    <t>$70.37 M</t>
+  </si>
+  <si>
+    <t>$70.09 M</t>
+  </si>
+  <si>
+    <t>$675.4 M</t>
+  </si>
+  <si>
+    <t>$57.8 M</t>
+  </si>
+  <si>
+    <t>$78.01 M</t>
+  </si>
+  <si>
+    <t>$42.02 M</t>
+  </si>
+  <si>
+    <t>$106.62 M</t>
+  </si>
+  <si>
+    <t>$89.35 M</t>
+  </si>
+  <si>
+    <t>$19.93 M</t>
+  </si>
+  <si>
+    <t>$288.1 M</t>
+  </si>
+  <si>
+    <t>$2.71 M</t>
+  </si>
+  <si>
+    <t>$69.94 M</t>
+  </si>
+  <si>
+    <t>$126.8 M</t>
+  </si>
+  <si>
+    <t>$52.67 M</t>
+  </si>
+  <si>
+    <t>$82.35 M</t>
+  </si>
+  <si>
+    <t>$121.14 M</t>
+  </si>
+  <si>
+    <t>$80.38 M</t>
+  </si>
+  <si>
+    <t>$31.31 M</t>
+  </si>
+  <si>
+    <t>$3.21 B</t>
+  </si>
+  <si>
+    <t>$185.13 M</t>
+  </si>
+  <si>
+    <t>$14.18 M</t>
+  </si>
+  <si>
+    <t>$47.24 M</t>
+  </si>
+  <si>
+    <t>$49.89 M</t>
+  </si>
+  <si>
+    <t>$75.54 M</t>
+  </si>
+  <si>
+    <t>$30.93 M</t>
+  </si>
+  <si>
+    <t>$334.37 M</t>
+  </si>
+  <si>
+    <t>$141.9 M</t>
+  </si>
+  <si>
+    <t>$5.86 M</t>
+  </si>
+  <si>
+    <t>$1,165.42 B</t>
+  </si>
+  <si>
+    <t>$309.07 B</t>
+  </si>
+  <si>
+    <t>$115.66 B</t>
+  </si>
+  <si>
+    <t>$74.04 B</t>
+  </si>
+  <si>
+    <t>$66.59 B</t>
+  </si>
+  <si>
+    <t>$34.47 B</t>
+  </si>
+  <si>
+    <t>$31.01 B</t>
+  </si>
+  <si>
+    <t>$15.65 B</t>
+  </si>
+  <si>
+    <t>$14.75 B</t>
+  </si>
+  <si>
+    <t>$11.86 B</t>
+  </si>
+  <si>
+    <t>$11.12 B</t>
+  </si>
+  <si>
+    <t>$9.63 B</t>
+  </si>
+  <si>
+    <t>$8.13 B</t>
+  </si>
+  <si>
+    <t>$7.92 B</t>
+  </si>
+  <si>
+    <t>$6.68 B</t>
+  </si>
+  <si>
+    <t>$6.53 B</t>
+  </si>
+  <si>
+    <t>$6.12 B</t>
+  </si>
+  <si>
+    <t>$5.46 B</t>
+  </si>
+  <si>
+    <t>$5.35 B</t>
+  </si>
+  <si>
+    <t>$4.45 B</t>
+  </si>
+  <si>
+    <t>$4.33 B</t>
+  </si>
+  <si>
+    <t>$4.02 B</t>
+  </si>
+  <si>
+    <t>$3.84 B</t>
+  </si>
+  <si>
+    <t>$3.56 B</t>
+  </si>
+  <si>
+    <t>$3.26 B</t>
+  </si>
+  <si>
+    <t>$3.22 B</t>
+  </si>
+  <si>
+    <t>$2.88 B</t>
+  </si>
+  <si>
+    <t>$2.76 B</t>
+  </si>
+  <si>
+    <t>$2.75 B</t>
+  </si>
+  <si>
+    <t>$2.74 B</t>
+  </si>
+  <si>
+    <t>$2.4 B</t>
+  </si>
+  <si>
+    <t>$2.31 B</t>
+  </si>
+  <si>
+    <t>$2.16 B</t>
   </si>
   <si>
     <t>$2.07 B</t>
   </si>
   <si>
-    <t>$5.63 B</t>
-  </si>
-  <si>
-    <t>$10.05 B</t>
+    <t>$2.08 B</t>
+  </si>
+  <si>
+    <t>$2.04 B</t>
+  </si>
+  <si>
+    <t>$2.02 B</t>
+  </si>
+  <si>
+    <t>$1.98 B</t>
+  </si>
+  <si>
+    <t>$1.92 B</t>
+  </si>
+  <si>
+    <t>$1.9 B</t>
+  </si>
+  <si>
+    <t>$1.86 B</t>
+  </si>
+  <si>
+    <t>$1.83 B</t>
+  </si>
+  <si>
+    <t>$1.77 B</t>
+  </si>
+  <si>
+    <t>$1.78 B</t>
+  </si>
+  <si>
+    <t>$1.74 B</t>
+  </si>
+  <si>
+    <t>$1.73 B</t>
   </si>
   <si>
     <t>$1.64 B</t>
   </si>
   <si>
-    <t>$364.16 M</t>
-  </si>
-  <si>
-    <t>$1.03 B</t>
-  </si>
-  <si>
-    <t>$367.19 M</t>
-  </si>
-  <si>
-    <t>$370.35 M</t>
-  </si>
-  <si>
-    <t>$473.4 M</t>
-  </si>
-  <si>
-    <t>$339.32 M</t>
-  </si>
-  <si>
-    <t>$361.68 M</t>
-  </si>
-  <si>
-    <t>$199.55 M</t>
-  </si>
-  <si>
-    <t>$319.19 M</t>
-  </si>
-  <si>
-    <t>$371.4 M</t>
-  </si>
-  <si>
-    <t>$213.55 M</t>
-  </si>
-  <si>
-    <t>$3.76 M</t>
-  </si>
-  <si>
-    <t>$340.97 M</t>
-  </si>
-  <si>
-    <t>$306.4 M</t>
-  </si>
-  <si>
-    <t>$250.47 M</t>
-  </si>
-  <si>
-    <t>$193.52 M</t>
-  </si>
-  <si>
-    <t>$113.79 M</t>
-  </si>
-  <si>
-    <t>$146.33 M</t>
-  </si>
-  <si>
-    <t>$1.2 B</t>
-  </si>
-  <si>
-    <t>$81.99 M</t>
-  </si>
-  <si>
-    <t>$80.73 M</t>
-  </si>
-  <si>
-    <t>$162.1 M</t>
-  </si>
-  <si>
-    <t>$141.28 M</t>
-  </si>
-  <si>
-    <t>$141.26 M</t>
-  </si>
-  <si>
-    <t>$9.4 M</t>
-  </si>
-  <si>
-    <t>$113.61 M</t>
-  </si>
-  <si>
-    <t>$4.3 M</t>
-  </si>
-  <si>
-    <t>$147.65 M</t>
-  </si>
-  <si>
-    <t>$179.9 M</t>
-  </si>
-  <si>
-    <t>$69.65 M</t>
-  </si>
-  <si>
-    <t>$9.5 B</t>
-  </si>
-  <si>
-    <t>$103.21 M</t>
-  </si>
-  <si>
-    <t>$110.73 M</t>
-  </si>
-  <si>
-    <t>$92.44 M</t>
-  </si>
-  <si>
-    <t>$23.27 M</t>
-  </si>
-  <si>
-    <t>$49.23 M</t>
-  </si>
-  <si>
-    <t>$119.6 M</t>
-  </si>
-  <si>
-    <t>$271.48 M</t>
-  </si>
-  <si>
-    <t>$167.83 M</t>
-  </si>
-  <si>
-    <t>$101.48 M</t>
-  </si>
-  <si>
-    <t>$243.8 M</t>
-  </si>
-  <si>
-    <t>$221.92 M</t>
-  </si>
-  <si>
-    <t>$553.66 M</t>
-  </si>
-  <si>
-    <t>$1,123.28 B</t>
-  </si>
-  <si>
-    <t>$300.9 B</t>
-  </si>
-  <si>
-    <t>$114.74 B</t>
-  </si>
-  <si>
-    <t>$71.62 B</t>
-  </si>
-  <si>
-    <t>$69.94 B</t>
-  </si>
-  <si>
-    <t>$34.31 B</t>
-  </si>
-  <si>
-    <t>$28.72 B</t>
-  </si>
-  <si>
-    <t>$14.63 B</t>
-  </si>
-  <si>
-    <t>$14.31 B</t>
-  </si>
-  <si>
-    <t>$12.07 B</t>
-  </si>
-  <si>
-    <t>$10.84 B</t>
-  </si>
-  <si>
-    <t>$9.29 B</t>
-  </si>
-  <si>
-    <t>$8.32 B</t>
-  </si>
-  <si>
-    <t>$8.08 B</t>
-  </si>
-  <si>
-    <t>$6.71 B</t>
-  </si>
-  <si>
-    <t>$6.33 B</t>
-  </si>
-  <si>
-    <t>$6.23 B</t>
-  </si>
-  <si>
-    <t>$5.35 B</t>
-  </si>
-  <si>
-    <t>$5.29 B</t>
-  </si>
-  <si>
-    <t>$4.41 B</t>
-  </si>
-  <si>
-    <t>$4.19 B</t>
-  </si>
-  <si>
-    <t>$4.09 B</t>
-  </si>
-  <si>
-    <t>$3.99 B</t>
-  </si>
-  <si>
-    <t>$3.58 B</t>
-  </si>
-  <si>
-    <t>$3.55 B</t>
-  </si>
-  <si>
-    <t>$3.32 B</t>
-  </si>
-  <si>
-    <t>$2.77 B</t>
-  </si>
-  <si>
-    <t>$2.73 B</t>
-  </si>
-  <si>
-    <t>$2.72 B</t>
-  </si>
-  <si>
-    <t>$2.45 B</t>
-  </si>
-  <si>
-    <t>$2.2 B</t>
-  </si>
-  <si>
-    <t>$2.18 B</t>
-  </si>
-  <si>
-    <t>$2.04 B</t>
-  </si>
-  <si>
-    <t>$2.02 B</t>
-  </si>
-  <si>
-    <t>$1.99 B</t>
-  </si>
-  <si>
-    <t>$2 B</t>
-  </si>
-  <si>
-    <t>$1.95 B</t>
-  </si>
-  <si>
-    <t>$1.94 B</t>
-  </si>
-  <si>
-    <t>$1.89 B</t>
-  </si>
-  <si>
-    <t>$1.9 B</t>
-  </si>
-  <si>
-    <t>$1.87 B</t>
-  </si>
-  <si>
-    <t>$1.8 B</t>
-  </si>
-  <si>
-    <t>$1.77 B</t>
-  </si>
-  <si>
-    <t>$1.72 B</t>
-  </si>
-  <si>
-    <t>$1.58 B</t>
-  </si>
-  <si>
-    <t>$1.54 B</t>
-  </si>
-  <si>
-    <t>$1.49 B</t>
+    <t>$1.48 B</t>
   </si>
   <si>
     <t>Hacer trading</t>
@@ -1363,16 +1369,16 @@
         <v>107</v>
       </c>
       <c r="E2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I2" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1386,16 +1392,16 @@
         <v>108</v>
       </c>
       <c r="E3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G3" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I3" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1409,16 +1415,16 @@
         <v>109</v>
       </c>
       <c r="E4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="I4" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1432,16 +1438,16 @@
         <v>110</v>
       </c>
       <c r="E5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G5" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="I5" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1455,16 +1461,16 @@
         <v>111</v>
       </c>
       <c r="E6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G6" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="I6" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1478,16 +1484,16 @@
         <v>109</v>
       </c>
       <c r="E7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1501,16 +1507,16 @@
         <v>112</v>
       </c>
       <c r="E8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G8" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I8" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1524,16 +1530,16 @@
         <v>113</v>
       </c>
       <c r="E9" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F9" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G9" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I9" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1547,16 +1553,16 @@
         <v>114</v>
       </c>
       <c r="E10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F10" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G10" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="I10" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1570,16 +1576,16 @@
         <v>115</v>
       </c>
       <c r="E11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F11" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G11" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="I11" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1593,13 +1599,13 @@
         <v>116</v>
       </c>
       <c r="E12" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F12" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G12" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1613,16 +1619,16 @@
         <v>117</v>
       </c>
       <c r="E13" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F13" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G13" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I13" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1636,16 +1642,16 @@
         <v>118</v>
       </c>
       <c r="E14" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F14" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G14" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I14" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1659,16 +1665,16 @@
         <v>119</v>
       </c>
       <c r="E15" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F15" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G15" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I15" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1682,16 +1688,16 @@
         <v>120</v>
       </c>
       <c r="E16" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F16" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G16" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I16" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="17" spans="2:9">
@@ -1705,16 +1711,16 @@
         <v>121</v>
       </c>
       <c r="E17" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F17" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G17" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I17" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="18" spans="2:9">
@@ -1728,16 +1734,16 @@
         <v>122</v>
       </c>
       <c r="E18" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F18" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G18" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="I18" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="19" spans="2:9">
@@ -1748,19 +1754,16 @@
         <v>74</v>
       </c>
       <c r="D19" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="E19" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F19" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G19" t="s">
-        <v>269</v>
-      </c>
-      <c r="I19" t="s">
-        <v>299</v>
+        <v>270</v>
       </c>
     </row>
     <row r="20" spans="2:9">
@@ -1771,16 +1774,19 @@
         <v>75</v>
       </c>
       <c r="D20" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E20" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F20" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G20" t="s">
-        <v>270</v>
+        <v>271</v>
+      </c>
+      <c r="I20" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="21" spans="2:9">
@@ -1791,19 +1797,19 @@
         <v>76</v>
       </c>
       <c r="D21" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E21" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F21" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G21" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="I21" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="22" spans="2:9">
@@ -1814,19 +1820,19 @@
         <v>77</v>
       </c>
       <c r="D22" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E22" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F22" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G22" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="I22" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="23" spans="2:9">
@@ -1837,19 +1843,19 @@
         <v>78</v>
       </c>
       <c r="D23" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E23" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F23" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G23" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I23" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="24" spans="2:9">
@@ -1860,16 +1866,16 @@
         <v>79</v>
       </c>
       <c r="D24" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E24" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F24" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G24" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="25" spans="2:9">
@@ -1880,19 +1886,19 @@
         <v>80</v>
       </c>
       <c r="D25" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E25" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F25" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G25" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I25" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="26" spans="2:9">
@@ -1903,19 +1909,19 @@
         <v>81</v>
       </c>
       <c r="D26" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E26" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F26" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G26" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I26" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="27" spans="2:9">
@@ -1926,19 +1932,19 @@
         <v>82</v>
       </c>
       <c r="D27" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E27" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F27" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G27" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I27" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="28" spans="2:9">
@@ -1949,16 +1955,19 @@
         <v>83</v>
       </c>
       <c r="D28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E28" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F28" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G28" t="s">
-        <v>278</v>
+        <v>279</v>
+      </c>
+      <c r="I28" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="29" spans="2:9">
@@ -1969,19 +1978,16 @@
         <v>84</v>
       </c>
       <c r="D29" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E29" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F29" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G29" t="s">
-        <v>279</v>
-      </c>
-      <c r="I29" t="s">
-        <v>299</v>
+        <v>280</v>
       </c>
     </row>
     <row r="30" spans="2:9">
@@ -1992,19 +1998,19 @@
         <v>85</v>
       </c>
       <c r="D30" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E30" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F30" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G30" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I30" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="31" spans="2:9">
@@ -2015,19 +2021,19 @@
         <v>86</v>
       </c>
       <c r="D31" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E31" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F31" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G31" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I31" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="32" spans="2:9">
@@ -2038,19 +2044,19 @@
         <v>87</v>
       </c>
       <c r="D32" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E32" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F32" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G32" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I32" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="33" spans="2:9">
@@ -2061,19 +2067,19 @@
         <v>88</v>
       </c>
       <c r="D33" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E33" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F33" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G33" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="I33" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="34" spans="2:9">
@@ -2084,19 +2090,16 @@
         <v>89</v>
       </c>
       <c r="D34" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E34" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F34" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G34" t="s">
-        <v>205</v>
-      </c>
-      <c r="I34" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
     </row>
     <row r="35" spans="2:9">
@@ -2107,16 +2110,19 @@
         <v>90</v>
       </c>
       <c r="D35" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E35" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F35" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G35" t="s">
-        <v>284</v>
+        <v>286</v>
+      </c>
+      <c r="I35" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="36" spans="2:9">
@@ -2127,19 +2133,19 @@
         <v>91</v>
       </c>
       <c r="D36" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E36" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F36" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G36" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="I36" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="37" spans="2:9">
@@ -2150,16 +2156,19 @@
         <v>92</v>
       </c>
       <c r="D37" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E37" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F37" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G37" t="s">
-        <v>286</v>
+        <v>288</v>
+      </c>
+      <c r="I37" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="38" spans="2:9">
@@ -2170,19 +2179,19 @@
         <v>93</v>
       </c>
       <c r="D38" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E38" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F38" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G38" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="I38" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="39" spans="2:9">
@@ -2193,16 +2202,16 @@
         <v>94</v>
       </c>
       <c r="D39" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="E39" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F39" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G39" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="40" spans="2:9">
@@ -2213,19 +2222,19 @@
         <v>95</v>
       </c>
       <c r="D40" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E40" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F40" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G40" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="I40" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="41" spans="2:9">
@@ -2236,19 +2245,19 @@
         <v>96</v>
       </c>
       <c r="D41" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E41" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F41" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G41" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="I41" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="42" spans="2:9">
@@ -2259,19 +2268,16 @@
         <v>97</v>
       </c>
       <c r="D42" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E42" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F42" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G42" t="s">
-        <v>291</v>
-      </c>
-      <c r="I42" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
     </row>
     <row r="43" spans="2:9">
@@ -2282,19 +2288,19 @@
         <v>98</v>
       </c>
       <c r="D43" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E43" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F43" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G43" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="I43" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="44" spans="2:9">
@@ -2305,19 +2311,19 @@
         <v>99</v>
       </c>
       <c r="D44" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E44" t="s">
-        <v>195</v>
+        <v>167</v>
       </c>
       <c r="F44" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G44" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="I44" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="45" spans="2:9">
@@ -2328,19 +2334,19 @@
         <v>100</v>
       </c>
       <c r="D45" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="E45" t="s">
         <v>196</v>
       </c>
       <c r="F45" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G45" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I45" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="46" spans="2:9">
@@ -2351,19 +2357,19 @@
         <v>101</v>
       </c>
       <c r="D46" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E46" t="s">
         <v>197</v>
       </c>
       <c r="F46" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G46" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="I46" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="47" spans="2:9">
@@ -2374,19 +2380,19 @@
         <v>102</v>
       </c>
       <c r="D47" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="E47" t="s">
         <v>198</v>
       </c>
       <c r="F47" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G47" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I47" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="48" spans="2:9">
@@ -2397,19 +2403,19 @@
         <v>103</v>
       </c>
       <c r="D48" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E48" t="s">
         <v>199</v>
       </c>
       <c r="F48" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G48" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I48" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="49" spans="2:9">
@@ -2420,19 +2426,19 @@
         <v>104</v>
       </c>
       <c r="D49" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E49" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="F49" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G49" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="I49" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="50" spans="2:9">
@@ -2443,19 +2449,19 @@
         <v>105</v>
       </c>
       <c r="D50" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E50" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F50" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G50" t="s">
-        <v>297</v>
+        <v>206</v>
       </c>
       <c r="I50" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="51" spans="2:9">
@@ -2466,19 +2472,16 @@
         <v>106</v>
       </c>
       <c r="D51" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E51" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F51" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G51" t="s">
-        <v>298</v>
-      </c>
-      <c r="I51" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
